--- a/xlsx/百慕大_intext.xlsx
+++ b/xlsx/百慕大_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="802">
   <si>
     <t>百慕大</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_百慕大</t>
+    <t>政策_政策_美国_百慕大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9B%BD%E6%97%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%91%E5%A5%B3%E7%8E%8B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國海外領地</t>
+    <t>英国海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>百慕大總理</t>
+    <t>百慕大总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E9%84%A7%E5%85%8B%E5%88%A9</t>
   </si>
   <si>
-    <t>邁克爾·鄧克利</t>
+    <t>迈克尔·邓克利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%85%83</t>
   </si>
   <si>
-    <t>百慕達元</t>
+    <t>百慕达元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.bm</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
   </si>
   <si>
-    <t>美國東岸</t>
+    <t>美国东岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
+    <t>北卡罗来纳州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cape_Hatteras</t>
@@ -335,25 +335,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1707%E5%B9%B4%E8%81%AF%E5%90%88%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1707年聯合法案</t>
+    <t>1707年联合法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A9%E7%A4%81</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>旅遊業</t>
+    <t>旅游业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E7%A8%8E%E5%A4%A9%E5%A0%82</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶氣候</t>
+    <t>热带气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>海灘</t>
+    <t>海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E9%A1%9E</t>
   </si>
   <si>
-    <t>肉類</t>
+    <t>肉类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BD%E9%9D%88</t>
   </si>
   <si>
-    <t>幽靈</t>
+    <t>幽灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC</t>
   </si>
   <si>
-    <t>豬</t>
+    <t>猪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B2%A8</t>
   </si>
   <si>
-    <t>期貨</t>
+    <t>期货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E6%98%8E%E5%90%84</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
@@ -497,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%8E%AE_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>詹姆斯鎮 (維吉尼亞州)</t>
+    <t>詹姆斯镇 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>法蘭西斯·德瑞克</t>
+    <t>法兰西斯·德瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E9%9B%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>沃爾特·雷利</t>
+    <t>沃尔特·雷利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sea_Venture</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>威廉·莎士比亞</t>
+    <t>威廉·莎士比亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_Strachey</t>
@@ -539,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>硬幣</t>
+    <t>硬币</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Rolfe</t>
@@ -575,49 +575,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
   </si>
   <si>
-    <t>煙草</t>
+    <t>烟草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E6%96%B9</t>
   </si>
   <si>
-    <t>美國南方</t>
+    <t>美国南方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>英格蘭王國</t>
+    <t>英格兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛王國</t>
+    <t>大不列颠王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%90%8D</t>
   </si>
   <si>
-    <t>學名</t>
+    <t>学名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%9B%90</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%8A%A0%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>特拉法加戰役</t>
+    <t>特拉法加战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HMS_Pickle_(1800)</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家海軍</t>
+    <t>英国皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8F%A3</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%B3%B6_(%E7%99%BE%E6%85%95%E9%81%94)</t>
   </si>
   <si>
-    <t>愛爾蘭島 (百慕達)</t>
+    <t>爱尔兰岛 (百慕达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -713,21 +713,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
   </si>
   <si>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B</t>
   </si>
   <si>
-    <t>防衛</t>
+    <t>防卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
@@ -773,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AF%B9%E5%85%9A</t>
@@ -791,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Vereker_(governor)</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%84%8F%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>民意調查</t>
+    <t>民意调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AE%A4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>國殤紀念日</t>
+    <t>国殇纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
@@ -875,37 +869,37 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>海軍</t>
+    <t>海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>空軍</t>
+    <t>空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Destroyers_for_Bases_Agreement</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
@@ -947,19 +941,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>潛艇</t>
+    <t>潜艇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Convict%27s_Bay,_Bermuda</t>
@@ -977,25 +971,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>電台</t>
+    <t>电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9C%96</t>
   </si>
   <si>
-    <t>地圖</t>
+    <t>地图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>百慕達地理</t>
+    <t>百慕达地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%81%98%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>外灘群島</t>
+    <t>外滩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%87%8C</t>
@@ -1013,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%8E%E8%91%A1%E8%90%84%E5%9C%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>瑪莎葡萄園島</t>
+    <t>玛莎葡萄园岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF_(%E7%99%BE%E6%85%95%E5%A4%A7)</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB%E9%8E%AE</t>
   </si>
   <si>
-    <t>聖喬治鎮</t>
+    <t>圣乔治镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -1061,31 +1055,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣暖流</t>
+    <t>墨西哥湾暖流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E7%83%AD%E6%8C%87%E6%95%B0</t>
@@ -1097,19 +1091,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%B0%8F</t>
   </si>
   <si>
-    <t>攝氏</t>
+    <t>摄氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B0%8F</t>
   </si>
   <si>
-    <t>華氏</t>
+    <t>华氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E9%BB%9E</t>
   </si>
   <si>
-    <t>冰點</t>
+    <t>冰点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -1139,49 +1133,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國中央情報局</t>
+    <t>美国中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
   </si>
   <si>
-    <t>世界概況</t>
+    <t>世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E7%A8%85</t>
   </si>
   <si>
-    <t>直接稅</t>
+    <t>直接税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3%E7%A8%85</t>
   </si>
   <si>
-    <t>進口稅</t>
+    <t>进口税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%AA%E4%BF%B8%E7%A8%85</t>
   </si>
   <si>
-    <t>薪俸稅</t>
+    <t>薪俸税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E7%A8%85</t>
   </si>
   <si>
-    <t>消費稅</t>
+    <t>消费税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>百慕達國際機場</t>
+    <t>百慕达国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>聯繫匯率</t>
+    <t>联系汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -1199,25 +1193,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>群島</t>
+    <t>群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速爾群島</t>
+    <t>亚速尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>加勒比海國家</t>
+    <t>加勒比海国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B2%9B</t>
@@ -1259,31 +1253,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%88%E5%A1%94</t>
   </si>
   <si>
-    <t>燈塔</t>
+    <t>灯塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%97%8F%E9%A4%A8</t>
   </si>
   <si>
-    <t>水族館</t>
+    <t>水族馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>博物館</t>
+    <t>博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>動物園</t>
+    <t>动物园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BA%8B</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>植物園</t>
+    <t>植物园</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gibbs_Hill_Lighthouse</t>
@@ -1325,19 +1316,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E7%AE%8F</t>
   </si>
   <si>
-    <t>風箏</t>
+    <t>风筝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
+    <t>复活节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bermuda_Day</t>
@@ -1349,19 +1340,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E5%A5%B3%E7%8E%8B</t>
   </si>
   <si>
-    <t>維多利亞女王</t>
+    <t>维多利亚女王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%97%A5</t>
   </si>
   <si>
-    <t>英聯邦日</t>
+    <t>英联邦日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%A5%B3%E7%9A%87%E5%A3%BD%E8%BE%B0</t>
   </si>
   <si>
-    <t>英女皇壽辰</t>
+    <t>英女皇寿辰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E6%97%A5</t>
@@ -1385,31 +1376,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界盃足球賽</t>
+    <t>世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>勞動節</t>
+    <t>劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E4%BA%A1%E5%B0%87%E5%A3%AB%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>陣亡將士紀念日</t>
+    <t>阵亡将士纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%A6%AE%E6%97%A5</t>
   </si>
   <si>
-    <t>節禮日</t>
+    <t>节礼日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -1481,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>邁克爾·道格拉斯</t>
+    <t>迈克尔·道格拉斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shaun_Goater</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%8B%92_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>前鋒 (足球)</t>
+    <t>前锋 (足球)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Edward_Harris_(archaeologist)</t>
@@ -1535,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>奧運會</t>
+    <t>奥运会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%B3%E5%A8%9C%C2%B7%E6%B5%B7%E8%92%82</t>
@@ -1559,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arthur_Rankin,_Jr.</t>
@@ -1571,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>英聯邦運動會</t>
+    <t>英联邦运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%B3%E9%AB%98</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>博物學家</t>
+    <t>博物学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E4%B8%89%E8%A7%92</t>
@@ -1649,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1661,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>遺產</t>
+    <t>遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E8%B0%B1</t>
@@ -1673,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%83%85%E5%B1%80</t>
   </si>
   <si>
-    <t>美國中情局</t>
+    <t>美国中情局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
@@ -1781,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -1805,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1823,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -1841,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1859,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1877,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1889,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1901,13 +1892,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1919,43 +1910,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1973,31 +1964,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -2027,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2039,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -2069,13 +2060,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
   </si>
   <si>
-    <t>属地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -2087,13 +2075,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -2105,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
@@ -2117,9 +2105,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>圣巴泰勒米岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2129,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納群島</t>
+    <t>瓦利斯和富图纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2213,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%B8%82</t>
   </si>
   <si>
-    <t>特別市</t>
+    <t>特别市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -2225,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩巴</t>
+    <t>萨巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A5%88%E5%B0%94</t>
@@ -2267,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2339,9 +2324,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
@@ -2351,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2363,19 +2345,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南極條約</t>
+    <t>南极条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%9D%83%E5%B1%9E%E5%9C%B0</t>
@@ -2387,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2405,25 +2384,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -6292,7 +6271,7 @@
         <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6318,10 +6297,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
@@ -6347,10 +6326,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6376,10 +6355,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6405,10 +6384,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6434,10 +6413,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6463,10 +6442,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6492,10 +6471,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6521,10 +6500,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6550,10 +6529,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6579,10 +6558,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6608,10 +6587,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6637,10 +6616,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6666,10 +6645,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6695,10 +6674,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6724,10 +6703,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6753,10 +6732,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6782,10 +6761,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6811,10 +6790,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6840,10 +6819,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6869,10 +6848,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6898,10 +6877,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6927,10 +6906,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6956,10 +6935,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6985,10 +6964,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7014,10 +6993,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -7043,10 +7022,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7072,10 +7051,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -7101,10 +7080,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>12</v>
@@ -7130,10 +7109,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7159,10 +7138,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7188,10 +7167,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7217,10 +7196,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7246,10 +7225,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7275,10 +7254,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7304,10 +7283,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7333,10 +7312,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7362,10 +7341,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7391,10 +7370,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7420,10 +7399,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7449,10 +7428,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7478,10 +7457,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7507,10 +7486,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7536,10 +7515,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7623,10 +7602,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7652,10 +7631,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7681,10 +7660,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7710,10 +7689,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -7739,10 +7718,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>7</v>
@@ -7768,10 +7747,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7797,10 +7776,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7826,10 +7805,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7855,10 +7834,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7884,10 +7863,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F176" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7913,10 +7892,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7942,10 +7921,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7971,10 +7950,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8000,10 +7979,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8029,10 +8008,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8058,10 +8037,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8087,10 +8066,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8116,10 +8095,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -8145,10 +8124,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8174,10 +8153,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8203,10 +8182,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8232,10 +8211,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8261,10 +8240,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8290,10 +8269,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>18</v>
@@ -8319,10 +8298,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8348,10 +8327,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>8</v>
@@ -8377,10 +8356,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -8406,10 +8385,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8435,10 +8414,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8493,10 +8472,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8522,10 +8501,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8551,10 +8530,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8580,10 +8559,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8609,10 +8588,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8638,10 +8617,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8667,10 +8646,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8696,10 +8675,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>4</v>
@@ -8725,10 +8704,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8783,10 +8762,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>32</v>
@@ -8812,10 +8791,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8841,10 +8820,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8870,10 +8849,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8899,10 +8878,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8928,10 +8907,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8957,10 +8936,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8986,10 +8965,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9015,10 +8994,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9044,10 +9023,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9073,10 +9052,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="G217" t="n">
         <v>12</v>
@@ -9102,10 +9081,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9131,10 +9110,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>6</v>
@@ -9160,10 +9139,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9189,10 +9168,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9218,10 +9197,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9247,10 +9226,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9276,10 +9255,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9305,10 +9284,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9334,10 +9313,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9363,10 +9342,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9392,10 +9371,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9421,10 +9400,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9450,10 +9429,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9479,10 +9458,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9508,10 +9487,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9537,10 +9516,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9566,10 +9545,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G234" t="n">
         <v>7</v>
@@ -9595,10 +9574,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9624,10 +9603,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9653,10 +9632,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9682,10 +9661,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9711,10 +9690,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9740,10 +9719,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9769,10 +9748,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9798,10 +9777,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9827,10 +9806,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9856,10 +9835,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9885,10 +9864,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9914,10 +9893,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9943,10 +9922,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9972,10 +9951,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10001,10 +9980,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10030,10 +10009,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10059,10 +10038,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10088,10 +10067,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10117,10 +10096,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10146,10 +10125,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10175,10 +10154,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10204,10 +10183,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10233,10 +10212,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10262,10 +10241,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10291,10 +10270,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10320,10 +10299,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10349,10 +10328,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10378,10 +10357,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10407,10 +10386,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10436,10 +10415,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10465,10 +10444,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10494,10 +10473,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10523,10 +10502,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10552,10 +10531,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10581,10 +10560,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10610,10 +10589,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10639,10 +10618,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10668,10 +10647,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10697,10 +10676,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10726,10 +10705,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G274" t="n">
         <v>4</v>
@@ -10755,10 +10734,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10784,10 +10763,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10813,10 +10792,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10842,10 +10821,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10871,10 +10850,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10900,10 +10879,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10929,10 +10908,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G281" t="n">
         <v>6</v>
@@ -10958,10 +10937,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -10987,10 +10966,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11016,10 +10995,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11045,10 +11024,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11074,10 +11053,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G286" t="n">
         <v>5</v>
@@ -11103,10 +11082,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G287" t="n">
         <v>9</v>
@@ -11132,10 +11111,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11161,10 +11140,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11190,10 +11169,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11219,10 +11198,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11248,10 +11227,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11277,10 +11256,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11306,10 +11285,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11335,10 +11314,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11364,10 +11343,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11393,10 +11372,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11422,10 +11401,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11451,10 +11430,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11480,10 +11459,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11509,10 +11488,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11538,10 +11517,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11567,10 +11546,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11596,10 +11575,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11625,10 +11604,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11654,10 +11633,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11683,10 +11662,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11712,10 +11691,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11741,10 +11720,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11770,10 +11749,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11799,10 +11778,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11828,10 +11807,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11857,10 +11836,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11886,10 +11865,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11915,10 +11894,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11944,10 +11923,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11973,10 +11952,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12002,10 +11981,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12031,10 +12010,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12060,10 +12039,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12089,10 +12068,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12118,10 +12097,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12147,10 +12126,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12176,10 +12155,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -12205,10 +12184,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12234,10 +12213,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12263,10 +12242,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12292,10 +12271,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12321,10 +12300,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12350,10 +12329,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12379,10 +12358,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12408,10 +12387,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12437,10 +12416,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12466,10 +12445,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12495,10 +12474,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12524,10 +12503,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12553,10 +12532,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12582,10 +12561,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -12611,10 +12590,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12640,10 +12619,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12669,10 +12648,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12698,10 +12677,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -12727,10 +12706,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12756,10 +12735,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12785,10 +12764,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12814,10 +12793,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12843,10 +12822,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12872,10 +12851,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12901,10 +12880,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12930,10 +12909,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G350" t="n">
         <v>10</v>
@@ -12959,10 +12938,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12988,10 +12967,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13017,10 +12996,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F353" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13046,10 +13025,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13075,10 +13054,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13104,10 +13083,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13133,10 +13112,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13162,10 +13141,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13191,10 +13170,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13220,10 +13199,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13249,10 +13228,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F361" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13278,10 +13257,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13307,10 +13286,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13336,10 +13315,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13365,10 +13344,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13394,10 +13373,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13423,10 +13402,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13452,10 +13431,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13481,10 +13460,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13510,10 +13489,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13539,10 +13518,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13568,10 +13547,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13597,10 +13576,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13626,10 +13605,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13655,10 +13634,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13684,10 +13663,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13713,10 +13692,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F377" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13742,10 +13721,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13771,10 +13750,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F379" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13800,10 +13779,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F380" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13829,10 +13808,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F381" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13858,10 +13837,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F382" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13887,10 +13866,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13916,10 +13895,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13945,10 +13924,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13974,10 +13953,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14003,10 +13982,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14032,10 +14011,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14061,10 +14040,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14090,10 +14069,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14119,10 +14098,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14148,10 +14127,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14177,10 +14156,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14206,10 +14185,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14235,10 +14214,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F395" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14264,10 +14243,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14293,10 +14272,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14322,10 +14301,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14351,10 +14330,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>641</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14380,10 +14359,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F400" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14409,10 +14388,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14438,10 +14417,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -14467,10 +14446,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14496,10 +14475,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>673</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14525,10 +14504,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14554,10 +14533,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14583,10 +14562,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14612,10 +14591,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14641,10 +14620,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F409" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14670,10 +14649,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14699,10 +14678,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F411" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14728,10 +14707,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F412" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14757,10 +14736,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F413" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14786,10 +14765,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F414" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14815,10 +14794,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F415" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14844,10 +14823,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14873,10 +14852,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -14902,10 +14881,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F418" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14931,10 +14910,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F419" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14960,10 +14939,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F420" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>

--- a/xlsx/百慕大_intext.xlsx
+++ b/xlsx/百慕大_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_百慕大</t>
+    <t>体育运动_体育运动_1936年夏季奥林匹克运动会_百慕大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9B%BD%E6%97%97</t>
